--- a/medicine/Psychotrope/Altbier/Altbier.xlsx
+++ b/medicine/Psychotrope/Altbier/Altbier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Altbier est une bière de fermentation haute brassée essentiellement dans la région de Düsseldorf en Allemagne. Titrant entre 4,5 et 5 % d'alcool et de couleur cuivre à brun, elle se caractérise par un goût combinant l'amer et le sucré.
 Contrairement à la Kölsch de Cologne elle n'est pas l'objet d'une appellation d'origine contrôlée et peut être brassée ailleurs qu'à Düsseldorf.
@@ -512,7 +524,9 @@
           <t>Brassage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom de Altbier renvoie à l'ancienneté de la méthode de brassage traditionnelle (alt signifiant « vieux » en allemand) : fermentation haute avec du malt « spécial » caramélisé, qui est responsable de la couleur cuivrée de la bière. La densité primitive de moût est de 11,5 à 12 %. Les ingrédients, conformément au Reinheitsgebot (Loi allemande sur la « pureté » de la bière), sont
 le malt d'orge ;
@@ -549,7 +563,9 @@
           <t>Brasseries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie de Altbier la plus connue est Diebels et la plus ancienne, Brasserie Bolten.
 Les principales Altbier sont :
@@ -607,7 +623,9 @@
           <t>Culture et folklore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Düsseldorf, la Alt est traditionnellement servie dans des verres de 0,2 l (hauts d'environ 10 cm et d'un diamètre de 6,5 cm).
 Pour la rivalité entre Alt et Kölsch, se reporter à la section Kölsch : culture et folklore.
